--- a/data - DCB2.xlsx
+++ b/data - DCB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/itay_zaada_intel_com/Documents/Documents/Personal/school/Data mining/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{018D2444-0FE1-4AFA-A570-10356BF5D36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23DB865-0631-4612-ABB5-AB4638187171}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB9865B-0A7F-4BF6-86AB-633AE6A76E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C808985-6FA0-40D0-86B1-81D879EABBF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>E_A</t>
   </si>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -941,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,19 +1205,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1233,21 +1278,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C2619A-F14A-4238-9806-E9CF47BE887B}">
   <dimension ref="A1:V782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C90"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,39 +1621,39 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:22" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="102" t="s">
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="102" t="s">
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="95" t="s">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="111" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1678,10 +1708,10 @@
       <c r="U3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="96"/>
+      <c r="V3" s="112"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="108" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1746,7 +1776,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="98"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1839,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="98"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1903,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="98"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1966,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="99"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +2029,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2065,7 +2095,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="98"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2158,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="98"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2221,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="98"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2284,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="99"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2317,7 +2347,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="103" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2382,7 +2412,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="108"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2445,7 +2475,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" s="108"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
@@ -2508,7 +2538,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="108"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2601,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="109"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
@@ -2634,7 +2664,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2699,7 +2729,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="108"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
@@ -2762,7 +2792,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="108"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="13" t="s">
         <v>3</v>
       </c>
@@ -2825,7 +2855,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="108"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="13" t="s">
         <v>59</v>
       </c>
@@ -2888,7 +2918,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="109"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="14" t="s">
         <v>60</v>
       </c>
@@ -2951,7 +2981,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="103" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -3016,7 +3046,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="108"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="13" t="s">
         <v>62</v>
       </c>
@@ -3079,7 +3109,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="108"/>
+      <c r="B26" s="106"/>
       <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3142,7 +3172,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="108"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="13" t="s">
         <v>63</v>
       </c>
@@ -3205,7 +3235,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="109"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="14" t="s">
         <v>64</v>
       </c>
@@ -3268,7 +3298,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="103" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -3333,7 +3363,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B30" s="108"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="13" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3426,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B31" s="108"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="13" t="s">
         <v>27</v>
       </c>
@@ -3459,7 +3489,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B32" s="108"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="13" t="s">
         <v>28</v>
       </c>
@@ -3522,7 +3552,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="109"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="14" t="s">
         <v>29</v>
       </c>
@@ -3585,7 +3615,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="103" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -3650,7 +3680,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B35" s="108"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="13" t="s">
         <v>32</v>
       </c>
@@ -3713,7 +3743,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B36" s="108"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="13" t="s">
         <v>33</v>
       </c>
@@ -3776,7 +3806,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B37" s="108"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="13" t="s">
         <v>34</v>
       </c>
@@ -3839,7 +3869,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="109"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="14" t="s">
         <v>35</v>
       </c>
@@ -3902,7 +3932,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -3967,7 +3997,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B40" s="108"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="13" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4060,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B41" s="108"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="13" t="s">
         <v>38</v>
       </c>
@@ -4093,7 +4123,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B42" s="108"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="13" t="s">
         <v>39</v>
       </c>
@@ -4156,7 +4186,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="109"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="14" t="s">
         <v>40</v>
       </c>
@@ -4219,7 +4249,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="103" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -4284,7 +4314,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B45" s="108"/>
+      <c r="B45" s="106"/>
       <c r="C45" s="13" t="s">
         <v>42</v>
       </c>
@@ -4347,7 +4377,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="108"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="13" t="s">
         <v>43</v>
       </c>
@@ -4410,7 +4440,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B47" s="108"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="13" t="s">
         <v>44</v>
       </c>
@@ -4473,7 +4503,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="109"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="14" t="s">
         <v>45</v>
       </c>
@@ -4536,7 +4566,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -4601,7 +4631,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B50" s="108"/>
+      <c r="B50" s="106"/>
       <c r="C50" s="13" t="s">
         <v>47</v>
       </c>
@@ -4664,7 +4694,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B51" s="108"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="13" t="s">
         <v>48</v>
       </c>
@@ -4727,7 +4757,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B52" s="108"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="13" t="s">
         <v>49</v>
       </c>
@@ -4790,7 +4820,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="109"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="14" t="s">
         <v>50</v>
       </c>
@@ -4853,7 +4883,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="103" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -4883,13 +4913,13 @@
       <c r="K54" s="43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L54" s="43">
+      <c r="L54" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M54" s="43">
-        <v>1.44</v>
-      </c>
-      <c r="N54" s="59">
+      <c r="M54" s="100">
+        <v>1.8</v>
+      </c>
+      <c r="N54" s="97">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O54" s="62">
@@ -4918,7 +4948,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B55" s="108"/>
+      <c r="B55" s="106"/>
       <c r="C55" s="13" t="s">
         <v>52</v>
       </c>
@@ -4946,13 +4976,13 @@
       <c r="K55" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M55" s="17">
-        <v>1.62</v>
-      </c>
-      <c r="N55" s="58">
+      <c r="M55" s="101">
+        <v>1.8</v>
+      </c>
+      <c r="N55" s="98">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O55" s="61">
@@ -4981,7 +5011,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B56" s="108"/>
+      <c r="B56" s="106"/>
       <c r="C56" s="13" t="s">
         <v>53</v>
       </c>
@@ -5009,13 +5039,13 @@
       <c r="K56" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M56" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="N56" s="10">
+      <c r="M56" s="101">
+        <v>1.8</v>
+      </c>
+      <c r="N56" s="92">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O56" s="21">
@@ -5044,7 +5074,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B57" s="108"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="13" t="s">
         <v>54</v>
       </c>
@@ -5072,13 +5102,13 @@
       <c r="K57" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M57" s="17">
-        <v>1.98</v>
-      </c>
-      <c r="N57" s="58">
+      <c r="M57" s="101">
+        <v>1.8</v>
+      </c>
+      <c r="N57" s="98">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O57" s="61">
@@ -5107,7 +5137,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="109"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="88" t="s">
         <v>55</v>
       </c>
@@ -5135,13 +5165,13 @@
       <c r="K58" s="37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="89">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M58" s="37">
-        <v>2.16</v>
-      </c>
-      <c r="N58" s="60">
+      <c r="M58" s="102">
+        <v>1.8</v>
+      </c>
+      <c r="N58" s="99">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="O58" s="63">
@@ -5169,12 +5199,12 @@
         <v>254.21600000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="107" t="s">
+    <row r="59" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="94" t="s">
-        <v>68</v>
+      <c r="C59" s="94">
+        <v>1</v>
       </c>
       <c r="D59" s="91">
         <v>83.52000000000001</v>
@@ -5234,10 +5264,10 @@
         <v>319.52199999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="110"/>
-      <c r="C60" s="94" t="s">
-        <v>68</v>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B60" s="104"/>
+      <c r="C60" s="95">
+        <v>2</v>
       </c>
       <c r="D60" s="92">
         <v>88.740000000000009</v>
@@ -5297,10 +5327,10 @@
         <v>300.38200000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="110"/>
-      <c r="C61" s="94" t="s">
-        <v>68</v>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B61" s="104"/>
+      <c r="C61" s="95">
+        <v>3</v>
       </c>
       <c r="D61" s="92">
         <v>93.960000000000008</v>
@@ -5360,10 +5390,10 @@
         <v>283.15199999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="110"/>
-      <c r="C62" s="94" t="s">
-        <v>68</v>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B62" s="104"/>
+      <c r="C62" s="95">
+        <v>4</v>
       </c>
       <c r="D62" s="92">
         <v>99.18</v>
@@ -5423,10 +5453,10 @@
         <v>267.69499999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="110"/>
-      <c r="C63" s="94" t="s">
-        <v>68</v>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B63" s="104"/>
+      <c r="C63" s="95">
+        <v>5</v>
       </c>
       <c r="D63" s="92">
         <v>109.62</v>
@@ -5486,10 +5516,10 @@
         <v>241.62100000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="110"/>
-      <c r="C64" s="94" t="s">
-        <v>68</v>
+    <row r="64" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="104"/>
+      <c r="C64" s="95">
+        <v>6</v>
       </c>
       <c r="D64" s="92">
         <v>114.84000000000002</v>
@@ -5549,10 +5579,10 @@
         <v>230.53899999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="110"/>
-      <c r="C65" s="94" t="s">
-        <v>68</v>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B65" s="104"/>
+      <c r="C65" s="95">
+        <v>7</v>
       </c>
       <c r="D65" s="92">
         <v>120.06</v>
@@ -5613,9 +5643,9 @@
       </c>
     </row>
     <row r="66" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="110"/>
-      <c r="C66" s="94" t="s">
-        <v>68</v>
+      <c r="B66" s="104"/>
+      <c r="C66" s="96">
+        <v>8</v>
       </c>
       <c r="D66" s="93">
         <v>125.28</v>
@@ -5675,10 +5705,10 @@
         <v>210.63299999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="110"/>
-      <c r="C67" s="94" t="s">
-        <v>68</v>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B67" s="104"/>
+      <c r="C67" s="94">
+        <v>9</v>
       </c>
       <c r="D67" s="91">
         <v>83.52000000000001</v>
@@ -5738,10 +5768,10 @@
         <v>319.93200000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="110"/>
-      <c r="C68" s="94" t="s">
-        <v>68</v>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B68" s="104"/>
+      <c r="C68" s="95">
+        <v>10</v>
       </c>
       <c r="D68" s="92">
         <v>88.740000000000009</v>
@@ -5801,10 +5831,10 @@
         <v>300.197</v>
       </c>
     </row>
-    <row r="69" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="110"/>
-      <c r="C69" s="94" t="s">
-        <v>68</v>
+    <row r="69" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="104"/>
+      <c r="C69" s="95">
+        <v>11</v>
       </c>
       <c r="D69" s="92">
         <v>93.960000000000008</v>
@@ -5864,10 +5894,10 @@
         <v>283.029</v>
       </c>
     </row>
-    <row r="70" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="110"/>
-      <c r="C70" s="94" t="s">
-        <v>68</v>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B70" s="104"/>
+      <c r="C70" s="95">
+        <v>12</v>
       </c>
       <c r="D70" s="92">
         <v>99.18</v>
@@ -5927,10 +5957,10 @@
         <v>267.661</v>
       </c>
     </row>
-    <row r="71" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="110"/>
-      <c r="C71" s="94" t="s">
-        <v>68</v>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B71" s="104"/>
+      <c r="C71" s="95">
+        <v>13</v>
       </c>
       <c r="D71" s="92">
         <v>109.62</v>
@@ -5990,10 +6020,10 @@
         <v>241.65</v>
       </c>
     </row>
-    <row r="72" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="110"/>
-      <c r="C72" s="94" t="s">
-        <v>68</v>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B72" s="104"/>
+      <c r="C72" s="95">
+        <v>14</v>
       </c>
       <c r="D72" s="92">
         <v>114.84000000000002</v>
@@ -6053,10 +6083,10 @@
         <v>230.65899999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="110"/>
-      <c r="C73" s="94" t="s">
-        <v>68</v>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B73" s="104"/>
+      <c r="C73" s="95">
+        <v>15</v>
       </c>
       <c r="D73" s="92">
         <v>120.06</v>
@@ -6117,9 +6147,9 @@
       </c>
     </row>
     <row r="74" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="110"/>
-      <c r="C74" s="94" t="s">
-        <v>68</v>
+      <c r="B74" s="104"/>
+      <c r="C74" s="96">
+        <v>16</v>
       </c>
       <c r="D74" s="93">
         <v>125.28</v>
@@ -6179,10 +6209,10 @@
         <v>210.88000000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="110"/>
-      <c r="C75" s="94" t="s">
-        <v>68</v>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B75" s="104"/>
+      <c r="C75" s="94">
+        <v>17</v>
       </c>
       <c r="D75" s="91">
         <v>83.52000000000001</v>
@@ -6242,10 +6272,10 @@
         <v>310.24</v>
       </c>
     </row>
-    <row r="76" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="110"/>
-      <c r="C76" s="94" t="s">
-        <v>68</v>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B76" s="104"/>
+      <c r="C76" s="95">
+        <v>18</v>
       </c>
       <c r="D76" s="92">
         <v>88.740000000000009</v>
@@ -6305,10 +6335,10 @@
         <v>295.62</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="110"/>
-      <c r="C77" s="94" t="s">
-        <v>68</v>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B77" s="104"/>
+      <c r="C77" s="95">
+        <v>19</v>
       </c>
       <c r="D77" s="92">
         <v>93.960000000000008</v>
@@ -6368,10 +6398,10 @@
         <v>281.81099999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="110"/>
-      <c r="C78" s="94" t="s">
-        <v>68</v>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B78" s="104"/>
+      <c r="C78" s="95">
+        <v>20</v>
       </c>
       <c r="D78" s="92">
         <v>99.18</v>
@@ -6431,10 +6461,10 @@
         <v>269.49099999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="110"/>
-      <c r="C79" s="94" t="s">
-        <v>68</v>
+    <row r="79" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="104"/>
+      <c r="C79" s="95">
+        <v>21</v>
       </c>
       <c r="D79" s="92">
         <v>109.62</v>
@@ -6494,10 +6524,10 @@
         <v>241.25299999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="110"/>
-      <c r="C80" s="94" t="s">
-        <v>68</v>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B80" s="104"/>
+      <c r="C80" s="95">
+        <v>22</v>
       </c>
       <c r="D80" s="92">
         <v>114.84000000000002</v>
@@ -6557,10 +6587,10 @@
         <v>232.21900000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="110"/>
-      <c r="C81" s="94" t="s">
-        <v>68</v>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B81" s="104"/>
+      <c r="C81" s="95">
+        <v>23</v>
       </c>
       <c r="D81" s="92">
         <v>120.06</v>
@@ -6621,9 +6651,9 @@
       </c>
     </row>
     <row r="82" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="110"/>
-      <c r="C82" s="94" t="s">
-        <v>68</v>
+      <c r="B82" s="104"/>
+      <c r="C82" s="96">
+        <v>24</v>
       </c>
       <c r="D82" s="93">
         <v>125.28</v>
@@ -6683,10 +6713,10 @@
         <v>215.85599999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="110"/>
-      <c r="C83" s="94" t="s">
-        <v>68</v>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B83" s="104"/>
+      <c r="C83" s="94">
+        <v>25</v>
       </c>
       <c r="D83" s="91">
         <v>83.52000000000001</v>
@@ -6746,10 +6776,10 @@
         <v>309.97300000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="110"/>
-      <c r="C84" s="94" t="s">
-        <v>68</v>
+    <row r="84" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="104"/>
+      <c r="C84" s="95">
+        <v>26</v>
       </c>
       <c r="D84" s="92">
         <v>88.740000000000009</v>
@@ -6809,10 +6839,10 @@
         <v>295.43199999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="110"/>
-      <c r="C85" s="94" t="s">
-        <v>68</v>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B85" s="104"/>
+      <c r="C85" s="95">
+        <v>27</v>
       </c>
       <c r="D85" s="92">
         <v>93.960000000000008</v>
@@ -6872,10 +6902,10 @@
         <v>281.69</v>
       </c>
     </row>
-    <row r="86" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="110"/>
-      <c r="C86" s="94" t="s">
-        <v>68</v>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B86" s="104"/>
+      <c r="C86" s="95">
+        <v>28</v>
       </c>
       <c r="D86" s="92">
         <v>99.18</v>
@@ -6935,10 +6965,10 @@
         <v>269.45699999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="110"/>
-      <c r="C87" s="94" t="s">
-        <v>68</v>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B87" s="104"/>
+      <c r="C87" s="95">
+        <v>29</v>
       </c>
       <c r="D87" s="92">
         <v>109.62</v>
@@ -6998,10 +7028,10 @@
         <v>241.25299999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="110"/>
-      <c r="C88" s="94" t="s">
-        <v>68</v>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B88" s="104"/>
+      <c r="C88" s="95">
+        <v>30</v>
       </c>
       <c r="D88" s="92">
         <v>114.84000000000002</v>
@@ -7061,10 +7091,10 @@
         <v>232.21900000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="110"/>
-      <c r="C89" s="94" t="s">
-        <v>68</v>
+    <row r="89" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="104"/>
+      <c r="C89" s="95">
+        <v>31</v>
       </c>
       <c r="D89" s="92">
         <v>120.06</v>
@@ -7125,9 +7155,9 @@
       </c>
     </row>
     <row r="90" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="111"/>
-      <c r="C90" s="94" t="s">
-        <v>68</v>
+      <c r="B90" s="105"/>
+      <c r="C90" s="96">
+        <v>32</v>
       </c>
       <c r="D90" s="93">
         <v>125.28</v>
@@ -9267,23 +9297,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B59:B90"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="B54:B58"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
